--- a/扶轮社app项目进度表.xlsx
+++ b/扶轮社app项目进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>扶轮社app项目进度表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,7 +49,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3h</t>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际扶轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际扶轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國際扶輪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -488,7 +512,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3">
-        <v>41465</v>
+        <v>41468</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -499,13 +523,57 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>41466</v>
+        <v>41469</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>41470</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>41471</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>41472</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>41473</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
